--- a/documentation/contribution_statement/Contribution statement.xlsx
+++ b/documentation/contribution_statement/Contribution statement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aman/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E25617-76B3-764A-B4E8-B4C70AC1B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3045AAE-C346-0640-B417-DC35229B6D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{5E574851-A635-9542-85D8-F0B911F25DBF}"/>
   </bookViews>
@@ -142,16 +142,16 @@
     <t>Frontend Landing Page, Calendar View, CRUD for Fixed/Variable Event, JWT Authentication, Profile setup personal activity</t>
   </si>
   <si>
-    <t>Email verification,  Scheduling variable events, JWT Authentication, CRUD for Fixed/Variable Events,  Profile setup part time job</t>
-  </si>
-  <si>
-    <t>Login, Scheduling Variable events, JWT Authenticatin, CRUD for Fixed/Variable Event, Scheduling Variable events, CI/CD</t>
-  </si>
-  <si>
     <t>Signup, Reschedule functionality of variable task, Profile setup classes, Unit test cases, Integration Test cases</t>
   </si>
   <si>
     <t>CRUD for Fixed/Variable Event, Profile setup leisure time, Refactoring, Reduction of code smells, CI/CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login, Scheduling Variable events, JWT Authenticatin, CRUD for Fixed/Variable Event, CI/CD, Reschedule functionality of variable task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email verification,  Scheduling variable events, JWT Authentication, CRUD for Fixed/Variable Events,  Profile setup part time job, Reschedule functionality of variable task </t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -399,6 +399,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,14 +423,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,14 +803,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,23 +819,23 @@
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
@@ -855,7 +853,7 @@
       <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="11">
@@ -864,7 +862,7 @@
       <c r="E3" s="6">
         <v>6</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3">
         <v>9</v>
       </c>
       <c r="G3" s="7">
@@ -878,8 +876,8 @@
       <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>29</v>
+      <c r="C4" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="11">
         <v>20</v>
@@ -887,7 +885,7 @@
       <c r="E4" s="6">
         <v>7</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" s="7">
@@ -901,8 +899,8 @@
       <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>31</v>
+      <c r="C5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="11">
         <v>19</v>
@@ -910,7 +908,7 @@
       <c r="E5" s="6">
         <v>6</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5">
         <v>9</v>
       </c>
       <c r="G5" s="7">
@@ -924,8 +922,8 @@
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>28</v>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="11">
         <v>22</v>
@@ -933,7 +931,7 @@
       <c r="E6" s="6">
         <v>7</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6">
         <v>8</v>
       </c>
       <c r="G6" s="7">
@@ -947,8 +945,8 @@
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>30</v>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="11">
         <v>18</v>
@@ -956,7 +954,7 @@
       <c r="E7" s="6">
         <v>7</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7">
         <v>9</v>
       </c>
       <c r="G7" s="7">
@@ -965,10 +963,10 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="13">
         <f>SUM(D3:D7)</f>
         <v>100</v>
